--- a/Saved_file/EM001/2026_11/sap_data.xlsx
+++ b/Saved_file/EM001/2026_11/sap_data.xlsx
@@ -492,29 +492,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-11-13</t>
+          <t>2026-11-16</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CUST6399</t>
+          <t>CUST1672</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>56802993</v>
+        <v>57298695</v>
       </c>
       <c r="E2" t="n">
-        <v>19112326</v>
+        <v>17122846</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -524,17 +524,17 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -546,29 +546,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2026-11-29</t>
+          <t>2026-11-10</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CUST6917</t>
+          <t>CUST2918</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>59892087</v>
+        <v>46170112</v>
       </c>
       <c r="E3" t="n">
-        <v>15139845</v>
+        <v>11829178</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>38</v>
+        <v>144</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -578,12 +578,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -600,29 +600,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2026-11-27</t>
+          <t>2026-11-07</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CUST6588</t>
+          <t>CUST9621</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>43958425</v>
+        <v>36321603</v>
       </c>
       <c r="E4" t="n">
-        <v>13674763</v>
+        <v>11190463</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>171</v>
+        <v>48</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -637,12 +637,12 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -654,25 +654,25 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2026-11-02</t>
+          <t>2026-11-25</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CUST6399</t>
+          <t>CUST4896</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>56276840</v>
+        <v>33275361</v>
       </c>
       <c r="E5" t="n">
-        <v>16428237</v>
+        <v>10603036</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -708,29 +708,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2026-11-29</t>
+          <t>2026-11-24</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CUST7431</t>
+          <t>CUST5530</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>46950877</v>
+        <v>37107610</v>
       </c>
       <c r="E6" t="n">
-        <v>12551878</v>
+        <v>11937945</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -745,12 +745,12 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -762,29 +762,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2026-11-24</t>
+          <t>2026-11-19</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CUST3948</t>
+          <t>CUST9197</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>42030000</v>
+        <v>35608494</v>
       </c>
       <c r="E7" t="n">
-        <v>11828858</v>
+        <v>9874707</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>55</v>
+        <v>129</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -799,12 +799,12 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -816,29 +816,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2026-11-08</t>
+          <t>2026-11-06</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CUST4918</t>
+          <t>CUST8579</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>45269129</v>
+        <v>54622107</v>
       </c>
       <c r="E8" t="n">
-        <v>12592901</v>
+        <v>14164448</v>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -848,17 +848,17 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -870,29 +870,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2026-11-15</t>
+          <t>2026-11-22</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CUST7999</t>
+          <t>CUST5941</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>49735419</v>
+        <v>33979244</v>
       </c>
       <c r="E9" t="n">
-        <v>15180114</v>
+        <v>10451197</v>
       </c>
       <c r="F9" t="n">
         <v>3</v>
       </c>
       <c r="G9" t="n">
-        <v>38</v>
+        <v>166</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -902,7 +902,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -912,7 +912,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -929,20 +929,20 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CUST6917</t>
+          <t>CUST3619</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>31514560</v>
+        <v>36295139</v>
       </c>
       <c r="E10" t="n">
-        <v>7985120</v>
+        <v>12680442</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -956,17 +956,17 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -978,25 +978,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2026-11-27</t>
+          <t>2026-11-28</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CUST6182</t>
+          <t>CUST2452</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>39094965</v>
+        <v>35780961</v>
       </c>
       <c r="E11" t="n">
-        <v>11131416</v>
+        <v>12112240</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1010,17 +1010,17 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1032,29 +1032,29 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2026-11-19</t>
+          <t>2026-11-21</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CUST9376</t>
+          <t>CUST7828</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>58372003</v>
+        <v>42823471</v>
       </c>
       <c r="E12" t="n">
-        <v>17124093</v>
+        <v>11425075</v>
       </c>
       <c r="F12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>153</v>
+        <v>41</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1064,17 +1064,17 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1086,25 +1086,25 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2026-11-03</t>
+          <t>2026-11-19</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CUST6182</t>
+          <t>CUST9197</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>30792165</v>
+        <v>44857473</v>
       </c>
       <c r="E13" t="n">
-        <v>10271508</v>
+        <v>12915646</v>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1118,17 +1118,17 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1140,29 +1140,29 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2026-11-30</t>
+          <t>2026-11-02</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CUST4880</t>
+          <t>CUST2633</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>42866267</v>
+        <v>52114504</v>
       </c>
       <c r="E14" t="n">
-        <v>13977945</v>
+        <v>16878172</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1172,17 +1172,17 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1194,25 +1194,25 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2026-11-29</t>
+          <t>2026-11-30</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CUST7989</t>
+          <t>CUST6831</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>45048548</v>
+        <v>32398320</v>
       </c>
       <c r="E15" t="n">
-        <v>12419869</v>
+        <v>8498547</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1226,7 +1226,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1248,29 +1248,29 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2026-11-17</t>
+          <t>2026-11-16</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CUST6563</t>
+          <t>CUST4896</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>58294057</v>
+        <v>56870528</v>
       </c>
       <c r="E16" t="n">
-        <v>15910114</v>
+        <v>19251428</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G16" t="n">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1280,12 +1280,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1302,25 +1302,25 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2026-11-20</t>
+          <t>2026-11-14</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CUST8420</t>
+          <t>CUST9197</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>46429132</v>
+        <v>56716927</v>
       </c>
       <c r="E17" t="n">
-        <v>14410099</v>
+        <v>16068850</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17" t="n">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1339,12 +1339,12 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1356,25 +1356,25 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2026-11-16</t>
+          <t>2026-11-03</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CUST6724</t>
+          <t>CUST1672</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>58791498</v>
+        <v>50127794</v>
       </c>
       <c r="E18" t="n">
-        <v>15375079</v>
+        <v>15231285</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1388,17 +1388,17 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1410,29 +1410,29 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2026-11-08</t>
+          <t>2026-11-09</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CUST5623</t>
+          <t>CUST8579</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>43997266</v>
+        <v>46972094</v>
       </c>
       <c r="E19" t="n">
-        <v>11211995</v>
+        <v>13854284</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>22</v>
+        <v>159</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1442,17 +1442,17 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1464,25 +1464,25 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2026-11-04</t>
+          <t>2026-11-16</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CUST3835</t>
+          <t>CUST3619</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>33150979</v>
+        <v>56145422</v>
       </c>
       <c r="E20" t="n">
-        <v>11172540</v>
+        <v>15940264</v>
       </c>
       <c r="F20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G20" t="n">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1501,12 +1501,12 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1518,25 +1518,25 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2026-11-11</t>
+          <t>2026-11-29</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CUST3835</t>
+          <t>CUST2887</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>39431454</v>
+        <v>58138061</v>
       </c>
       <c r="E21" t="n">
-        <v>13458515</v>
+        <v>16831853</v>
       </c>
       <c r="F21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1550,17 +1550,17 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1572,29 +1572,29 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2026-11-19</t>
+          <t>2026-11-17</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CUST6293</t>
+          <t>CUST8503</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>45256110</v>
+        <v>42420332</v>
       </c>
       <c r="E22" t="n">
-        <v>12351078</v>
+        <v>12879678</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G22" t="n">
-        <v>144</v>
+        <v>54</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1604,7 +1604,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1626,25 +1626,25 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2026-11-03</t>
+          <t>2026-11-01</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CUST7211</t>
+          <t>CUST9952</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>34506489</v>
+        <v>53757136</v>
       </c>
       <c r="E23" t="n">
-        <v>10639416</v>
+        <v>17040426</v>
       </c>
       <c r="F23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1663,12 +1663,12 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1680,29 +1680,29 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2026-11-14</t>
+          <t>2026-11-16</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CUST6399</t>
+          <t>CUST2239</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>36915138</v>
+        <v>46321215</v>
       </c>
       <c r="E24" t="n">
-        <v>10980356</v>
+        <v>15716136</v>
       </c>
       <c r="F24" t="n">
         <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1722,7 +1722,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1734,25 +1734,25 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2026-11-22</t>
+          <t>2026-11-24</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CUST8990</t>
+          <t>CUST2918</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>38058811</v>
+        <v>40923757</v>
       </c>
       <c r="E25" t="n">
-        <v>11743398</v>
+        <v>14229020</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1771,12 +1771,12 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1788,25 +1788,25 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2026-11-27</t>
+          <t>2026-11-13</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CUST5873</t>
+          <t>CUST4021</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>38208258</v>
+        <v>34163419</v>
       </c>
       <c r="E26" t="n">
-        <v>11221802</v>
+        <v>10423752</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G26" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1820,12 +1820,12 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -1842,25 +1842,25 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2026-11-02</t>
+          <t>2026-11-16</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CUST9721</t>
+          <t>CUST7751</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>39955948</v>
+        <v>53426510</v>
       </c>
       <c r="E27" t="n">
-        <v>12783829</v>
+        <v>16244645</v>
       </c>
       <c r="F27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G27" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -1896,29 +1896,29 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2026-11-03</t>
+          <t>2026-11-18</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CUST9463</t>
+          <t>CUST2918</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>53757581</v>
+        <v>52074101</v>
       </c>
       <c r="E28" t="n">
-        <v>14504643</v>
+        <v>15029956</v>
       </c>
       <c r="F28" t="n">
         <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1928,17 +1928,17 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1950,29 +1950,29 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2026-11-10</t>
+          <t>2026-11-04</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CUST5873</t>
+          <t>CUST1556</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>36198421</v>
+        <v>30478691</v>
       </c>
       <c r="E29" t="n">
-        <v>10962607</v>
+        <v>9477079</v>
       </c>
       <c r="F29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1992,7 +1992,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2004,25 +2004,25 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2026-11-28</t>
+          <t>2026-11-18</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CUST6293</t>
+          <t>CUST3619</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>38324560</v>
+        <v>54345949</v>
       </c>
       <c r="E30" t="n">
-        <v>9788559</v>
+        <v>17255595</v>
       </c>
       <c r="F30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -2036,12 +2036,12 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2058,25 +2058,25 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2026-11-23</t>
+          <t>2026-11-25</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CUST3670</t>
+          <t>CUST4894</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>47351393</v>
+        <v>59312983</v>
       </c>
       <c r="E31" t="n">
-        <v>12224843</v>
+        <v>16505261</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -2095,12 +2095,12 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2112,29 +2112,29 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2026-11-07</t>
+          <t>2026-11-12</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CUST7211</t>
+          <t>CUST9792</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>57278336</v>
+        <v>37756010</v>
       </c>
       <c r="E32" t="n">
-        <v>19716192</v>
+        <v>10388490</v>
       </c>
       <c r="F32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G32" t="n">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2144,7 +2144,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2154,7 +2154,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2166,29 +2166,29 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2026-11-03</t>
+          <t>2026-11-15</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CUST5944</t>
+          <t>CUST5530</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>53013016</v>
+        <v>40083063</v>
       </c>
       <c r="E33" t="n">
-        <v>15721426</v>
+        <v>12428773</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G33" t="n">
-        <v>59</v>
+        <v>179</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2203,7 +2203,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2220,29 +2220,29 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2026-11-21</t>
+          <t>2026-11-12</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CUST6293</t>
+          <t>CUST8503</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>54201578</v>
+        <v>30217298</v>
       </c>
       <c r="E34" t="n">
-        <v>14605210</v>
+        <v>8884105</v>
       </c>
       <c r="F34" t="n">
         <v>3</v>
       </c>
       <c r="G34" t="n">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2252,17 +2252,17 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2274,29 +2274,29 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2026-11-02</t>
+          <t>2026-11-05</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CUST6917</t>
+          <t>CUST1745</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>48388345</v>
+        <v>37423547</v>
       </c>
       <c r="E35" t="n">
-        <v>14049262</v>
+        <v>12331894</v>
       </c>
       <c r="F35" t="n">
         <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2306,17 +2306,17 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2328,25 +2328,25 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2026-11-01</t>
+          <t>2026-11-13</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CUST8371</t>
+          <t>CUST5067</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>39291174</v>
+        <v>37493637</v>
       </c>
       <c r="E36" t="n">
-        <v>11025707</v>
+        <v>11666359</v>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G36" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2370,7 +2370,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2382,25 +2382,25 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2026-11-11</t>
+          <t>2026-11-27</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CUST7999</t>
+          <t>CUST2123</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>30590082</v>
+        <v>52461354</v>
       </c>
       <c r="E37" t="n">
-        <v>9704198</v>
+        <v>16077205</v>
       </c>
       <c r="F37" t="n">
         <v>2</v>
       </c>
       <c r="G37" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -2414,17 +2414,17 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2436,25 +2436,25 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2026-11-18</t>
+          <t>2026-11-21</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CUST6182</t>
+          <t>CUST6892</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>55554760</v>
+        <v>39556844</v>
       </c>
       <c r="E38" t="n">
-        <v>15040482</v>
+        <v>11375913</v>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G38" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -2468,17 +2468,17 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2490,25 +2490,25 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2026-11-29</t>
+          <t>2026-11-28</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CUST7989</t>
+          <t>CUST9621</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>37374239</v>
+        <v>42493591</v>
       </c>
       <c r="E39" t="n">
-        <v>12387518</v>
+        <v>14702142</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G39" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2544,29 +2544,29 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2026-11-09</t>
+          <t>2026-11-26</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CUST1763</t>
+          <t>CUST8761</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>41521637</v>
+        <v>42417104</v>
       </c>
       <c r="E40" t="n">
-        <v>10658299</v>
+        <v>14389028</v>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>24</v>
+        <v>142</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2576,12 +2576,12 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -2598,25 +2598,25 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2026-11-18</t>
+          <t>2026-11-10</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CUST4951</t>
+          <t>CUST4894</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>38039202</v>
+        <v>41269580</v>
       </c>
       <c r="E41" t="n">
-        <v>13310384</v>
+        <v>12883007</v>
       </c>
       <c r="F41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -2630,12 +2630,12 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -2652,25 +2652,25 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2026-11-07</t>
+          <t>2026-11-17</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CUST4880</t>
+          <t>CUST9952</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>38204732</v>
+        <v>37491055</v>
       </c>
       <c r="E42" t="n">
-        <v>11336366</v>
+        <v>10536031</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -2684,17 +2684,17 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2706,29 +2706,29 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2026-11-01</t>
+          <t>2026-11-10</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CUST3425</t>
+          <t>CUST1745</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>59571020</v>
+        <v>32362936</v>
       </c>
       <c r="E43" t="n">
-        <v>18258243</v>
+        <v>10982255</v>
       </c>
       <c r="F43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2738,17 +2738,17 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2760,25 +2760,25 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2026-11-07</t>
+          <t>2026-11-27</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CUST4373</t>
+          <t>CUST4905</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>45567034</v>
+        <v>35275902</v>
       </c>
       <c r="E44" t="n">
-        <v>14030920</v>
+        <v>11021479</v>
       </c>
       <c r="F44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -2792,12 +2792,12 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -2814,29 +2814,29 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2026-11-08</t>
+          <t>2026-11-01</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CUST4918</t>
+          <t>CUST8761</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>54167773</v>
+        <v>42474405</v>
       </c>
       <c r="E45" t="n">
-        <v>14846875</v>
+        <v>13596035</v>
       </c>
       <c r="F45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2851,12 +2851,12 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2868,29 +2868,29 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2026-11-28</t>
+          <t>2026-11-13</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CUST9376</t>
+          <t>CUST7751</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>32102880</v>
+        <v>50103370</v>
       </c>
       <c r="E46" t="n">
-        <v>10780666</v>
+        <v>15033659</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G46" t="n">
-        <v>148</v>
+        <v>30</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2900,12 +2900,12 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -2922,25 +2922,25 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2026-11-11</t>
+          <t>2026-11-06</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CUST9376</t>
+          <t>CUST1672</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>40760774</v>
+        <v>49653985</v>
       </c>
       <c r="E47" t="n">
-        <v>12406328</v>
+        <v>15793405</v>
       </c>
       <c r="F47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G47" t="n">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -2954,17 +2954,17 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2976,29 +2976,29 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2026-11-22</t>
+          <t>2026-11-06</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CUST6593</t>
+          <t>CUST9952</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>51346202</v>
+        <v>38397923</v>
       </c>
       <c r="E48" t="n">
-        <v>16212870</v>
+        <v>10074076</v>
       </c>
       <c r="F48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G48" t="n">
-        <v>78</v>
+        <v>171</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3008,17 +3008,17 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3030,25 +3030,25 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2026-11-13</t>
+          <t>2026-11-28</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CUST4951</t>
+          <t>CUST4896</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>32659443</v>
+        <v>50511440</v>
       </c>
       <c r="E49" t="n">
-        <v>11174814</v>
+        <v>15955867</v>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G49" t="n">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -3062,17 +3062,17 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3084,25 +3084,25 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2026-11-30</t>
+          <t>2026-11-24</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CUST3451</t>
+          <t>CUST3619</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>31359683</v>
+        <v>44101668</v>
       </c>
       <c r="E50" t="n">
-        <v>10634169</v>
+        <v>12692695</v>
       </c>
       <c r="F50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -3116,17 +3116,17 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3138,25 +3138,25 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2026-11-30</t>
+          <t>2026-11-06</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CUST4880</t>
+          <t>CUST9197</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>59207064</v>
+        <v>37883636</v>
       </c>
       <c r="E51" t="n">
-        <v>15298838</v>
+        <v>12466328</v>
       </c>
       <c r="F51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3180,7 +3180,7 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3192,25 +3192,25 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2026-11-16</t>
+          <t>2026-11-23</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CUST9604</t>
+          <t>CUST2435</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>43091116</v>
+        <v>37470343</v>
       </c>
       <c r="E52" t="n">
-        <v>12583157</v>
+        <v>11150243</v>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G52" t="n">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -3224,17 +3224,17 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3246,29 +3246,29 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2026-11-14</t>
+          <t>2026-11-28</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CUST7431</t>
+          <t>CUST1278</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>30417457</v>
+        <v>55040085</v>
       </c>
       <c r="E53" t="n">
-        <v>9973079</v>
+        <v>16830290</v>
       </c>
       <c r="F53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>25</v>
+        <v>116</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3278,7 +3278,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3288,7 +3288,7 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3300,25 +3300,25 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2026-11-01</t>
+          <t>2026-11-30</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CUST4367</t>
+          <t>CUST9197</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>47021361</v>
+        <v>43528190</v>
       </c>
       <c r="E54" t="n">
-        <v>15184345</v>
+        <v>15065373</v>
       </c>
       <c r="F54" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G54" t="n">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -3337,12 +3337,12 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3354,25 +3354,25 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2026-11-07</t>
+          <t>2026-11-08</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>CUST5597</t>
+          <t>CUST2233</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>48401113</v>
+        <v>37054790</v>
       </c>
       <c r="E55" t="n">
-        <v>15852086</v>
+        <v>9347806</v>
       </c>
       <c r="F55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -3386,17 +3386,17 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3408,29 +3408,29 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2026-11-10</t>
+          <t>2026-11-22</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CUST2214</t>
+          <t>CUST2435</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>41706352</v>
+        <v>54540227</v>
       </c>
       <c r="E56" t="n">
-        <v>13539218</v>
+        <v>17447686</v>
       </c>
       <c r="F56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G56" t="n">
-        <v>47</v>
+        <v>167</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3440,17 +3440,17 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3462,25 +3462,25 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2026-11-24</t>
+          <t>2026-11-07</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CUST5873</t>
+          <t>CUST1278</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>38433629</v>
+        <v>30654256</v>
       </c>
       <c r="E57" t="n">
-        <v>13273418</v>
+        <v>9185416</v>
       </c>
       <c r="F57" t="n">
         <v>1</v>
       </c>
       <c r="G57" t="n">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -3504,7 +3504,7 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3516,29 +3516,29 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2026-11-14</t>
+          <t>2026-11-17</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CUST4880</t>
+          <t>CUST1672</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>54272804</v>
+        <v>50729243</v>
       </c>
       <c r="E58" t="n">
-        <v>17608150</v>
+        <v>13409857</v>
       </c>
       <c r="F58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G58" t="n">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3553,12 +3553,12 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3570,29 +3570,29 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2026-11-13</t>
+          <t>2026-11-02</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CUST5597</t>
+          <t>CUST1745</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>38954315</v>
+        <v>32610977</v>
       </c>
       <c r="E59" t="n">
-        <v>10315072</v>
+        <v>9388010</v>
       </c>
       <c r="F59" t="n">
         <v>1</v>
       </c>
       <c r="G59" t="n">
-        <v>104</v>
+        <v>36</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3612,7 +3612,7 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3624,25 +3624,25 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2026-11-12</t>
+          <t>2026-11-03</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>CUST9463</t>
+          <t>CUST5668</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>59258534</v>
+        <v>53026583</v>
       </c>
       <c r="E60" t="n">
-        <v>17462295</v>
+        <v>15988673</v>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G60" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -3661,12 +3661,12 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3678,25 +3678,25 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2026-11-24</t>
+          <t>2026-11-20</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CUST3532</t>
+          <t>CUST8503</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>58146390</v>
+        <v>45340281</v>
       </c>
       <c r="E61" t="n">
-        <v>16760865</v>
+        <v>14575843</v>
       </c>
       <c r="F61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -3710,17 +3710,17 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3732,29 +3732,29 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2026-11-03</t>
+          <t>2026-11-23</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>CUST7211</t>
+          <t>CUST1556</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>33336631</v>
+        <v>36101903</v>
       </c>
       <c r="E62" t="n">
-        <v>9205754</v>
+        <v>12244809</v>
       </c>
       <c r="F62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G62" t="n">
-        <v>147</v>
+        <v>27</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -3764,17 +3764,17 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3786,25 +3786,25 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2026-11-13</t>
+          <t>2026-11-27</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>CUST6572</t>
+          <t>CUST3495</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>32718074</v>
+        <v>58627314</v>
       </c>
       <c r="E63" t="n">
-        <v>8202015</v>
+        <v>19883636</v>
       </c>
       <c r="F63" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G63" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
@@ -3818,12 +3818,12 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -3840,29 +3840,29 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2026-11-24</t>
+          <t>2026-11-13</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>CUST9604</t>
+          <t>CUST2887</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>49294967</v>
+        <v>42785185</v>
       </c>
       <c r="E64" t="n">
-        <v>13137093</v>
+        <v>14154354</v>
       </c>
       <c r="F64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>170</v>
+        <v>41</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -3872,17 +3872,17 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3894,25 +3894,25 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2026-11-22</t>
+          <t>2026-11-26</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>CUST6642</t>
+          <t>CUST8291</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>51135968</v>
+        <v>55218798</v>
       </c>
       <c r="E65" t="n">
-        <v>14320072</v>
+        <v>19310900</v>
       </c>
       <c r="F65" t="n">
         <v>3</v>
       </c>
       <c r="G65" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -3936,7 +3936,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3948,25 +3948,25 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2026-11-04</t>
+          <t>2026-11-03</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>CUST3670</t>
+          <t>CUST2887</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>31336583</v>
+        <v>41011281</v>
       </c>
       <c r="E66" t="n">
-        <v>8447383</v>
+        <v>12012603</v>
       </c>
       <c r="F66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
@@ -3980,17 +3980,17 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4002,25 +4002,25 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2026-11-09</t>
+          <t>2026-11-18</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>CUST6293</t>
+          <t>CUST2233</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>42406254</v>
+        <v>32143323</v>
       </c>
       <c r="E67" t="n">
-        <v>12917879</v>
+        <v>11033400</v>
       </c>
       <c r="F67" t="n">
         <v>3</v>
       </c>
       <c r="G67" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
@@ -4044,7 +4044,7 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -4056,25 +4056,25 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2026-11-09</t>
+          <t>2026-11-12</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>CUST7623</t>
+          <t>CUST1556</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>30595719</v>
+        <v>53263986</v>
       </c>
       <c r="E68" t="n">
-        <v>8144200</v>
+        <v>13472013</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
@@ -4088,12 +4088,12 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -4110,25 +4110,25 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2026-11-27</t>
+          <t>2026-11-12</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>CUST4951</t>
+          <t>CUST4021</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>41176856</v>
+        <v>37010212</v>
       </c>
       <c r="E69" t="n">
-        <v>11518060</v>
+        <v>12532259</v>
       </c>
       <c r="F69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G69" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
@@ -4142,17 +4142,17 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4164,25 +4164,25 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2026-11-13</t>
+          <t>2026-11-03</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>CUST9463</t>
+          <t>CUST5837</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>57584046</v>
+        <v>34588042</v>
       </c>
       <c r="E70" t="n">
-        <v>19894794</v>
+        <v>9640942</v>
       </c>
       <c r="F70" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G70" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -4218,25 +4218,25 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2026-11-02</t>
+          <t>2026-11-17</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>CUST6399</t>
+          <t>CUST6040</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>54822284</v>
+        <v>41459984</v>
       </c>
       <c r="E71" t="n">
-        <v>15512710</v>
+        <v>11649882</v>
       </c>
       <c r="F71" t="n">
         <v>2</v>
       </c>
       <c r="G71" t="n">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
@@ -4250,17 +4250,17 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4272,29 +4272,29 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2026-11-12</t>
+          <t>2026-11-27</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>CUST7211</t>
+          <t>CUST4896</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>34827003</v>
+        <v>36826464</v>
       </c>
       <c r="E72" t="n">
-        <v>9785645</v>
+        <v>12618898</v>
       </c>
       <c r="F72" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G72" t="n">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -4309,12 +4309,12 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4326,25 +4326,25 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2026-11-25</t>
+          <t>2026-11-02</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>CUST6572</t>
+          <t>CUST9197</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>50162929</v>
+        <v>32162614</v>
       </c>
       <c r="E73" t="n">
-        <v>13412718</v>
+        <v>10633749</v>
       </c>
       <c r="F73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
@@ -4358,17 +4358,17 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4380,25 +4380,25 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2026-11-17</t>
+          <t>2026-11-08</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>CUST1365</t>
+          <t>CUST5530</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>57165717</v>
+        <v>51151985</v>
       </c>
       <c r="E74" t="n">
-        <v>19299331</v>
+        <v>14414938</v>
       </c>
       <c r="F74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G74" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4434,25 +4434,25 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2026-11-17</t>
+          <t>2026-11-19</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>CUST7989</t>
+          <t>CUST4896</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>32437547</v>
+        <v>33240005</v>
       </c>
       <c r="E75" t="n">
-        <v>9304328</v>
+        <v>9635702</v>
       </c>
       <c r="F75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -4476,7 +4476,7 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4488,29 +4488,29 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2026-11-04</t>
+          <t>2026-11-15</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>CUST6642</t>
+          <t>CUST8291</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>56691128</v>
+        <v>39788730</v>
       </c>
       <c r="E76" t="n">
-        <v>16002114</v>
+        <v>13655550</v>
       </c>
       <c r="F76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -4520,12 +4520,12 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -4542,25 +4542,25 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2026-11-04</t>
+          <t>2026-11-02</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>CUST7668</t>
+          <t>CUST6269</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>53071873</v>
+        <v>46910008</v>
       </c>
       <c r="E77" t="n">
-        <v>16950780</v>
+        <v>15154249</v>
       </c>
       <c r="F77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G77" t="n">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -4584,7 +4584,7 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4596,25 +4596,25 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2026-11-07</t>
+          <t>2026-11-24</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>CUST4085</t>
+          <t>CUST3619</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>59333973</v>
+        <v>34429041</v>
       </c>
       <c r="E78" t="n">
-        <v>18775738</v>
+        <v>10894626</v>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G78" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -4638,7 +4638,7 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -4650,25 +4650,25 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2026-11-29</t>
+          <t>2026-11-02</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>CUST6579</t>
+          <t>CUST1745</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>42961773</v>
+        <v>42080886</v>
       </c>
       <c r="E79" t="n">
-        <v>11919052</v>
+        <v>10531394</v>
       </c>
       <c r="F79" t="n">
         <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
@@ -4682,12 +4682,12 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -4704,29 +4704,29 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2026-11-05</t>
+          <t>2026-11-27</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>CUST6572</t>
+          <t>CUST2244</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>48877824</v>
+        <v>48257542</v>
       </c>
       <c r="E80" t="n">
-        <v>14038956</v>
+        <v>15935453</v>
       </c>
       <c r="F80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G80" t="n">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -4736,17 +4736,17 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4758,25 +4758,25 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2026-11-05</t>
+          <t>2026-11-16</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>CUST5007</t>
+          <t>CUST6892</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>56176824</v>
+        <v>33060875</v>
       </c>
       <c r="E81" t="n">
-        <v>15211009</v>
+        <v>10897011</v>
       </c>
       <c r="F81" t="n">
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -4800,7 +4800,7 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4812,29 +4812,29 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2026-11-06</t>
+          <t>2026-11-12</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>CUST1482</t>
+          <t>CUST2244</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>40995470</v>
+        <v>57688546</v>
       </c>
       <c r="E82" t="n">
-        <v>12754626</v>
+        <v>16811359</v>
       </c>
       <c r="F82" t="n">
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>118</v>
+        <v>55</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -4844,17 +4844,17 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4866,25 +4866,25 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2026-11-21</t>
+          <t>2026-11-18</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>CUST6724</t>
+          <t>CUST6040</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>46315844</v>
+        <v>58474847</v>
       </c>
       <c r="E83" t="n">
-        <v>12195307</v>
+        <v>19351238</v>
       </c>
       <c r="F83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -4925,20 +4925,20 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>CUST6293</t>
+          <t>CUST4896</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>40299896</v>
+        <v>48325910</v>
       </c>
       <c r="E84" t="n">
-        <v>12585364</v>
+        <v>12249576</v>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84" t="n">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -4974,29 +4974,29 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2026-11-19</t>
+          <t>2026-11-23</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>CUST5007</t>
+          <t>CUST2239</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>49714876</v>
+        <v>49032260</v>
       </c>
       <c r="E85" t="n">
-        <v>15640186</v>
+        <v>14895438</v>
       </c>
       <c r="F85" t="n">
         <v>3</v>
       </c>
       <c r="G85" t="n">
-        <v>51</v>
+        <v>165</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -5006,7 +5006,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -5016,7 +5016,7 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -5028,25 +5028,25 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2026-11-13</t>
+          <t>2026-11-25</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>CUST5873</t>
+          <t>CUST1745</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>39315158</v>
+        <v>48934854</v>
       </c>
       <c r="E86" t="n">
-        <v>13358779</v>
+        <v>14265884</v>
       </c>
       <c r="F86" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G86" t="n">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
@@ -5060,12 +5060,12 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
@@ -5082,29 +5082,29 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2026-11-18</t>
+          <t>2026-11-06</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>CUST5597</t>
+          <t>CUST5837</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>44238019</v>
+        <v>52127502</v>
       </c>
       <c r="E87" t="n">
-        <v>12828667</v>
+        <v>16172498</v>
       </c>
       <c r="F87" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G87" t="n">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -5119,12 +5119,12 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -5136,29 +5136,29 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2026-11-13</t>
+          <t>2026-11-10</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>CUST6593</t>
+          <t>CUST8761</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>42295515</v>
+        <v>30266211</v>
       </c>
       <c r="E88" t="n">
-        <v>12976384</v>
+        <v>8542371</v>
       </c>
       <c r="F88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G88" t="n">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -5178,7 +5178,7 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -5190,25 +5190,25 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2026-11-17</t>
+          <t>2026-11-03</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>CUST3835</t>
+          <t>CUST2435</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>36008361</v>
+        <v>57734956</v>
       </c>
       <c r="E89" t="n">
-        <v>12516329</v>
+        <v>16900370</v>
       </c>
       <c r="F89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G89" t="n">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
@@ -5222,17 +5222,17 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -5244,29 +5244,29 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2026-11-25</t>
+          <t>2026-11-19</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>CUST7211</t>
+          <t>CUST9792</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>30537944</v>
+        <v>30272492</v>
       </c>
       <c r="E90" t="n">
-        <v>8964437</v>
+        <v>7942503</v>
       </c>
       <c r="F90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G90" t="n">
-        <v>140</v>
+        <v>53</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -5276,17 +5276,17 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -5298,25 +5298,25 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2026-11-14</t>
+          <t>2026-11-11</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>CUST9376</t>
+          <t>CUST2244</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>37369587</v>
+        <v>35484365</v>
       </c>
       <c r="E91" t="n">
-        <v>11551866</v>
+        <v>11377452</v>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G91" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -5352,25 +5352,25 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2026-11-20</t>
+          <t>2026-11-03</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>CUST4751</t>
+          <t>CUST4223</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>31144353</v>
+        <v>49826505</v>
       </c>
       <c r="E92" t="n">
-        <v>10697145</v>
+        <v>13894969</v>
       </c>
       <c r="F92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
@@ -5384,7 +5384,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -5394,7 +5394,7 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -5406,29 +5406,29 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2026-11-12</t>
+          <t>2026-11-25</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>CUST5623</t>
+          <t>CUST8503</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>37207767</v>
+        <v>58352589</v>
       </c>
       <c r="E93" t="n">
-        <v>10206574</v>
+        <v>16278077</v>
       </c>
       <c r="F93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G93" t="n">
-        <v>175</v>
+        <v>25</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -5438,7 +5438,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -5460,25 +5460,25 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2026-11-02</t>
+          <t>2026-11-17</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>CUST4367</t>
+          <t>CUST6831</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>35034219</v>
+        <v>41491043</v>
       </c>
       <c r="E94" t="n">
-        <v>9703127</v>
+        <v>11657396</v>
       </c>
       <c r="F94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G94" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
@@ -5492,17 +5492,17 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -5514,25 +5514,25 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2026-11-01</t>
+          <t>2026-11-14</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>CUST6563</t>
+          <t>CUST1944</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>49110652</v>
+        <v>48414826</v>
       </c>
       <c r="E95" t="n">
-        <v>16676708</v>
+        <v>16080536</v>
       </c>
       <c r="F95" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G95" t="n">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
@@ -5551,12 +5551,12 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -5568,29 +5568,29 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2026-11-13</t>
+          <t>2026-11-19</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>CUST5007</t>
+          <t>CUST7788</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>36907316</v>
+        <v>57616097</v>
       </c>
       <c r="E96" t="n">
-        <v>11095799</v>
+        <v>18292267</v>
       </c>
       <c r="F96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G96" t="n">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -5605,12 +5605,12 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -5622,29 +5622,29 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2026-11-23</t>
+          <t>2026-11-28</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>CUST7999</t>
+          <t>CUST9197</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>49432432</v>
+        <v>58246760</v>
       </c>
       <c r="E97" t="n">
-        <v>14146978</v>
+        <v>17290088</v>
       </c>
       <c r="F97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -5654,17 +5654,17 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -5676,25 +5676,25 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2026-11-22</t>
+          <t>2026-11-18</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>CUST5873</t>
+          <t>CUST2435</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>50562826</v>
+        <v>33047128</v>
       </c>
       <c r="E98" t="n">
-        <v>13907214</v>
+        <v>10197662</v>
       </c>
       <c r="F98" t="n">
         <v>2</v>
       </c>
       <c r="G98" t="n">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -5718,7 +5718,7 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -5730,29 +5730,29 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2026-11-15</t>
+          <t>2026-11-24</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>CUST8420</t>
+          <t>CUST2452</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>53246377</v>
+        <v>40288678</v>
       </c>
       <c r="E99" t="n">
-        <v>18410700</v>
+        <v>13720281</v>
       </c>
       <c r="F99" t="n">
         <v>2</v>
       </c>
       <c r="G99" t="n">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -5762,17 +5762,17 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -5784,25 +5784,25 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2026-11-03</t>
+          <t>2026-11-17</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>CUST7999</t>
+          <t>CUST3862</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>37951188</v>
+        <v>54990509</v>
       </c>
       <c r="E100" t="n">
-        <v>11337012</v>
+        <v>14919048</v>
       </c>
       <c r="F100" t="n">
         <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
@@ -5816,7 +5816,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -5826,7 +5826,7 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -5838,25 +5838,25 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2026-11-15</t>
+          <t>2026-11-30</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>CUST9463</t>
+          <t>CUST5941</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>59440524</v>
+        <v>40402201</v>
       </c>
       <c r="E101" t="n">
-        <v>16989070</v>
+        <v>11247698</v>
       </c>
       <c r="F101" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G101" t="n">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
@@ -5870,17 +5870,17 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -5892,25 +5892,25 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2026-11-25</t>
+          <t>2026-11-23</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>CUST2214</t>
+          <t>CUST2435</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>51192231</v>
+        <v>44399066</v>
       </c>
       <c r="E102" t="n">
-        <v>16433207</v>
+        <v>11256843</v>
       </c>
       <c r="F102" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G102" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
@@ -5946,25 +5946,25 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2026-11-18</t>
+          <t>2026-11-05</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>CUST5623</t>
+          <t>CUST4905</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>50399461</v>
+        <v>52158164</v>
       </c>
       <c r="E103" t="n">
-        <v>14069201</v>
+        <v>17661594</v>
       </c>
       <c r="F103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G103" t="n">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
@@ -5988,7 +5988,7 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -6000,25 +6000,25 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2026-11-05</t>
+          <t>2026-11-19</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>CUST7989</t>
+          <t>CUST4905</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>36115026</v>
+        <v>34291283</v>
       </c>
       <c r="E104" t="n">
-        <v>10667058</v>
+        <v>8630549</v>
       </c>
       <c r="F104" t="n">
         <v>2</v>
       </c>
       <c r="G104" t="n">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
@@ -6032,17 +6032,17 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -6054,25 +6054,25 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2026-11-06</t>
+          <t>2026-11-27</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>CUST6399</t>
+          <t>CUST8579</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>59613021</v>
+        <v>34910124</v>
       </c>
       <c r="E105" t="n">
-        <v>15047520</v>
+        <v>9984594</v>
       </c>
       <c r="F105" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G105" t="n">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -6096,7 +6096,7 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -6108,29 +6108,29 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2026-11-10</t>
+          <t>2026-11-28</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>CUST6572</t>
+          <t>CUST8761</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>59531899</v>
+        <v>39070681</v>
       </c>
       <c r="E106" t="n">
-        <v>19871817</v>
+        <v>13545534</v>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G106" t="n">
-        <v>151</v>
+        <v>73</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -6140,17 +6140,17 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -6162,29 +6162,29 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2026-11-14</t>
+          <t>2026-11-03</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>CUST4951</t>
+          <t>CUST5941</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>37440439</v>
+        <v>50495293</v>
       </c>
       <c r="E107" t="n">
-        <v>10668534</v>
+        <v>15912718</v>
       </c>
       <c r="F107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G107" t="n">
-        <v>58</v>
+        <v>156</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -6194,12 +6194,12 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
@@ -6216,25 +6216,25 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2026-11-18</t>
+          <t>2026-11-08</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>CUST6563</t>
+          <t>CUST4223</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>33532812</v>
+        <v>38061150</v>
       </c>
       <c r="E108" t="n">
-        <v>11105335</v>
+        <v>11555474</v>
       </c>
       <c r="F108" t="n">
         <v>3</v>
       </c>
       <c r="G108" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
@@ -6248,17 +6248,17 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -6270,29 +6270,29 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2026-11-03</t>
+          <t>2026-11-05</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>CUST2845</t>
+          <t>CUST6892</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>56318324</v>
+        <v>37643197</v>
       </c>
       <c r="E109" t="n">
-        <v>16650203</v>
+        <v>9784698</v>
       </c>
       <c r="F109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G109" t="n">
-        <v>152</v>
+        <v>42</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -6302,7 +6302,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -6312,7 +6312,7 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -6324,25 +6324,25 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2026-11-17</t>
+          <t>2026-11-28</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>CUST7623</t>
+          <t>CUST2179</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>31357751</v>
+        <v>39695529</v>
       </c>
       <c r="E110" t="n">
-        <v>10809113</v>
+        <v>13505239</v>
       </c>
       <c r="F110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G110" t="n">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
@@ -6356,17 +6356,17 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -6378,25 +6378,25 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2026-11-23</t>
+          <t>2026-11-10</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>CUST6579</t>
+          <t>CUST3619</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>33516671</v>
+        <v>32744316</v>
       </c>
       <c r="E111" t="n">
-        <v>9352995</v>
+        <v>9645682</v>
       </c>
       <c r="F111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G111" t="n">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
@@ -6410,17 +6410,17 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -6432,29 +6432,29 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2026-11-19</t>
+          <t>2026-11-10</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>CUST1482</t>
+          <t>CUST2435</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>31118149</v>
+        <v>30385513</v>
       </c>
       <c r="E112" t="n">
-        <v>7976128</v>
+        <v>9689515</v>
       </c>
       <c r="F112" t="n">
         <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -6469,12 +6469,12 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -6486,29 +6486,29 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2026-11-24</t>
+          <t>2026-11-27</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>CUST6572</t>
+          <t>CUST5530</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>46520016</v>
+        <v>46736681</v>
       </c>
       <c r="E113" t="n">
-        <v>15571609</v>
+        <v>13462754</v>
       </c>
       <c r="F113" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>165</v>
+        <v>18</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -6518,17 +6518,17 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -6540,29 +6540,29 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2026-11-09</t>
+          <t>2026-11-27</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>CUST3451</t>
+          <t>CUST6040</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>39298521</v>
+        <v>42769410</v>
       </c>
       <c r="E114" t="n">
-        <v>13636932</v>
+        <v>11045629</v>
       </c>
       <c r="F114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -6572,17 +6572,17 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -6594,25 +6594,25 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2026-11-14</t>
+          <t>2026-11-25</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>CUST7668</t>
+          <t>CUST2435</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>40866174</v>
+        <v>46524249</v>
       </c>
       <c r="E115" t="n">
-        <v>11681097</v>
+        <v>14481225</v>
       </c>
       <c r="F115" t="n">
         <v>1</v>
       </c>
       <c r="G115" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
@@ -6631,12 +6631,12 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -6648,29 +6648,29 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2026-11-21</t>
+          <t>2026-11-19</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>CUST9463</t>
+          <t>CUST7828</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>58056480</v>
+        <v>57361203</v>
       </c>
       <c r="E116" t="n">
-        <v>16295385</v>
+        <v>19022408</v>
       </c>
       <c r="F116" t="n">
         <v>1</v>
       </c>
       <c r="G116" t="n">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -6680,17 +6680,17 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -6702,29 +6702,29 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2026-11-19</t>
+          <t>2026-11-23</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>CUST1365</t>
+          <t>CUST3060</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>41863647</v>
+        <v>40302673</v>
       </c>
       <c r="E117" t="n">
-        <v>13214409</v>
+        <v>11969220</v>
       </c>
       <c r="F117" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G117" t="n">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -6734,17 +6734,17 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -6756,25 +6756,25 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2026-11-06</t>
+          <t>2026-11-07</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>CUST4951</t>
+          <t>CUST7828</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>40350764</v>
+        <v>49767711</v>
       </c>
       <c r="E118" t="n">
-        <v>12913488</v>
+        <v>14505396</v>
       </c>
       <c r="F118" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G118" t="n">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
@@ -6810,25 +6810,25 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2026-11-21</t>
+          <t>2026-11-26</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>CUST6182</t>
+          <t>CUST8291</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>47546164</v>
+        <v>40933115</v>
       </c>
       <c r="E119" t="n">
-        <v>14196961</v>
+        <v>13432184</v>
       </c>
       <c r="F119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G119" t="n">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
@@ -6842,12 +6842,12 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
@@ -6864,29 +6864,29 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2026-11-11</t>
+          <t>2026-11-06</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>CUST7989</t>
+          <t>CUST2938</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>48828070</v>
+        <v>40303575</v>
       </c>
       <c r="E120" t="n">
-        <v>13530234</v>
+        <v>10885771</v>
       </c>
       <c r="F120" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G120" t="n">
-        <v>163</v>
+        <v>51</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -6896,7 +6896,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -6918,25 +6918,25 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2026-11-18</t>
+          <t>2026-11-14</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>CUST6293</t>
+          <t>CUST3862</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>45656647</v>
+        <v>45773435</v>
       </c>
       <c r="E121" t="n">
-        <v>14888195</v>
+        <v>14937618</v>
       </c>
       <c r="F121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G121" t="n">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
@@ -6950,7 +6950,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -7017,16 +7017,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>85.40000000000001</v>
+        <v>84.2</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>3260046</v>
+        <v>3873927</v>
       </c>
       <c r="E2" t="n">
-        <v>903324</v>
+        <v>1100793</v>
       </c>
     </row>
     <row r="3">
@@ -7036,16 +7036,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>98.59999999999999</v>
+        <v>91.7</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>20508306</v>
+        <v>17246150</v>
       </c>
       <c r="E3" t="n">
-        <v>2086403</v>
+        <v>3327072</v>
       </c>
     </row>
     <row r="4">
@@ -7055,16 +7055,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>95.5</v>
+        <v>96.3</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>22893871</v>
+        <v>6576389</v>
       </c>
       <c r="E4" t="n">
-        <v>5364693</v>
+        <v>1234475</v>
       </c>
     </row>
     <row r="5">
@@ -7074,16 +7074,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>4787268</v>
+        <v>14053513</v>
       </c>
       <c r="E5" t="n">
-        <v>1270422</v>
+        <v>3745186</v>
       </c>
     </row>
     <row r="6">
@@ -7093,16 +7093,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>97.40000000000001</v>
+        <v>91.2</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>15333845</v>
+        <v>10765440</v>
       </c>
       <c r="E6" t="n">
-        <v>4136731</v>
+        <v>3219888</v>
       </c>
     </row>
     <row r="7">
@@ -7112,16 +7112,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>96.09999999999999</v>
+        <v>92.5</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>4241022</v>
+        <v>15127410</v>
       </c>
       <c r="E7" t="n">
-        <v>1244285</v>
+        <v>2369751</v>
       </c>
     </row>
     <row r="8">
@@ -7131,16 +7131,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>92.2</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>12387114</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1246873</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -7169,16 +7169,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>97.59999999999999</v>
+        <v>99.2</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>18970926</v>
+        <v>6171626</v>
       </c>
       <c r="E10" t="n">
-        <v>3973911</v>
+        <v>1136847</v>
       </c>
     </row>
     <row r="11">
@@ -7188,16 +7188,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>99.09999999999999</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>15566840</v>
+        <v>4536591</v>
       </c>
       <c r="E11" t="n">
-        <v>2977276</v>
+        <v>900638</v>
       </c>
     </row>
     <row r="12">
@@ -7207,16 +7207,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>96.40000000000001</v>
+        <v>90.2</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>6819660</v>
+        <v>15894115</v>
       </c>
       <c r="E12" t="n">
-        <v>1142969</v>
+        <v>3597862</v>
       </c>
     </row>
     <row r="13">
@@ -7226,16 +7226,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.5</v>
+        <v>93.3</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>4163652</v>
+        <v>4091796</v>
       </c>
       <c r="E13" t="n">
-        <v>840233</v>
+        <v>486520</v>
       </c>
     </row>
     <row r="14">
@@ -7245,16 +7245,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.90000000000001</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="C14" t="n">
         <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>20370442</v>
+        <v>9419684</v>
       </c>
       <c r="E14" t="n">
-        <v>4847051</v>
+        <v>2505976</v>
       </c>
     </row>
     <row r="15">
@@ -7264,16 +7264,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>86.7</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>2929278</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>297875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -7283,16 +7283,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>9770932</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1613289</v>
       </c>
     </row>
     <row r="17">
@@ -7302,16 +7302,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>91.40000000000001</v>
+        <v>91.5</v>
       </c>
       <c r="C17" t="n">
         <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>14430806</v>
+        <v>5834414</v>
       </c>
       <c r="E17" t="n">
-        <v>1526299</v>
+        <v>1071442</v>
       </c>
     </row>
     <row r="18">
@@ -7321,16 +7321,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>95.59999999999999</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>9417480</v>
+        <v>18844534</v>
       </c>
       <c r="E18" t="n">
-        <v>1529375</v>
+        <v>5609900</v>
       </c>
     </row>
     <row r="19">
@@ -7340,16 +7340,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>9058429</v>
+        <v>2911013</v>
       </c>
       <c r="E19" t="n">
-        <v>2385486</v>
+        <v>766561</v>
       </c>
     </row>
     <row r="20">
@@ -7359,16 +7359,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>98.40000000000001</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>6199417</v>
+        <v>8966009</v>
       </c>
       <c r="E20" t="n">
-        <v>1191898</v>
+        <v>2638290</v>
       </c>
     </row>
     <row r="21">
@@ -7378,16 +7378,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>93.8</v>
+        <v>95.2</v>
       </c>
       <c r="C21" t="n">
         <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>21243815</v>
+        <v>16160681</v>
       </c>
       <c r="E21" t="n">
-        <v>5923595</v>
+        <v>4533383</v>
       </c>
     </row>
     <row r="22">
@@ -7397,16 +7397,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>80.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>3936090</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>922428</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -7435,16 +7435,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>99.3</v>
+        <v>95</v>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>9865482</v>
+        <v>9471691</v>
       </c>
       <c r="E24" t="n">
-        <v>2730283</v>
+        <v>1047326</v>
       </c>
     </row>
     <row r="25">
@@ -7454,16 +7454,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>93</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="C25" t="n">
         <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>8116581</v>
+        <v>10723629</v>
       </c>
       <c r="E25" t="n">
-        <v>2243426</v>
+        <v>3199891</v>
       </c>
     </row>
     <row r="26">
@@ -7473,16 +7473,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>97.3</v>
+        <v>99.3</v>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>9718342</v>
+        <v>4387217</v>
       </c>
       <c r="E26" t="n">
-        <v>2090113</v>
+        <v>1068185</v>
       </c>
     </row>
     <row r="27">
@@ -7492,16 +7492,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>92.40000000000001</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="C27" t="n">
         <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>9868766</v>
+        <v>13267906</v>
       </c>
       <c r="E27" t="n">
-        <v>2278532</v>
+        <v>2365373</v>
       </c>
     </row>
     <row r="28">
@@ -7511,16 +7511,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97</v>
+        <v>92.7</v>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
-        <v>7387137</v>
+        <v>13131703</v>
       </c>
       <c r="E28" t="n">
-        <v>1531621</v>
+        <v>2989014</v>
       </c>
     </row>
     <row r="29">
@@ -7568,16 +7568,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>98.2</v>
+        <v>92.5</v>
       </c>
       <c r="C31" t="n">
         <v>5</v>
       </c>
       <c r="D31" t="n">
-        <v>10020247</v>
+        <v>6058888</v>
       </c>
       <c r="E31" t="n">
-        <v>1080862</v>
+        <v>724719</v>
       </c>
     </row>
   </sheetData>
